--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentju/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentju/Documents/Personal-Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="460" windowWidth="23960" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="15600" yWindow="460" windowWidth="10000" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4403,7 +4403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -5490,7 +5490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
